--- a/Data/ArgetinaIncomeHeterogeneity.xlsx
+++ b/Data/ArgetinaIncomeHeterogeneity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxj477\Documents\GitHub\SSD\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA69A4E7-F86D-4185-84F0-98F5903F4652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9552EB33-F7D0-429F-AF7D-F6994BF55158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC45968E-424E-6E4A-BB4B-F9BAB4F00FF2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Data for Argentina calibration</t>
   </si>
@@ -78,6 +78,27 @@
   </si>
   <si>
     <t xml:space="preserve">relative income of informal to average formal: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">average informal hours: </t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Informal</t>
+  </si>
+  <si>
+    <t>1. Quartile</t>
+  </si>
+  <si>
+    <t>2. Quartile</t>
+  </si>
+  <si>
+    <t>3. Quartile</t>
+  </si>
+  <si>
+    <t>4. Quartile</t>
   </si>
 </sst>
 </file>
@@ -429,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E842C211-1C8F-9C4F-9BE8-35FA3BB232C2}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -569,6 +590,14 @@
         <v>388.3</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
@@ -683,79 +712,100 @@
         <v>424.9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>11</v>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>40.4</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
         <v>9</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <f>+(C12/C11+C23/C22)/2</f>
+        <v>0.30890161227630919</v>
+      </c>
+      <c r="C28">
+        <f>(C13+C24)/(60*2)</f>
+        <v>0.66416666666666657</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29">
         <f>+(D7+D18)/2</f>
         <v>0.47039630603950888</v>
       </c>
-      <c r="C27">
+      <c r="C29">
         <f>+(E7+E18)/2</f>
         <v>0.63416666666666666</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28">
-        <f t="shared" ref="B28:B30" si="4">+(D8+D19)/2</f>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30:B32" si="4">+(D8+D19)/2</f>
         <v>0.72880384035139367</v>
       </c>
-      <c r="C28">
-        <f t="shared" ref="C28:C30" si="5">+(E8+E19)/2</f>
+      <c r="C30">
+        <f t="shared" ref="C30:C32" si="5">+(E8+E19)/2</f>
         <v>0.69666666666666666</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>3</v>
-      </c>
-      <c r="B29">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31">
         <f t="shared" si="4"/>
         <v>0.99779220015956671</v>
       </c>
-      <c r="C29">
+      <c r="C31">
         <f t="shared" si="5"/>
         <v>0.72666666666666657</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="B30">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32">
         <f t="shared" si="4"/>
         <v>1.8981848932355407</v>
       </c>
-      <c r="C30">
+      <c r="C32">
         <f t="shared" si="5"/>
         <v>0.77833333333333332</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>13</v>
       </c>
-      <c r="E31">
+      <c r="E33">
         <f>+(C12/C11+C23/C22)/2</f>
         <v>0.30890161227630919</v>
       </c>
